--- a/text/画面定義書_M0004購入承認一覧画面.xlsx
+++ b/text/画面定義書_M0004購入承認一覧画面.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C43C0D-E3D1-B342-8C3A-1696BFD6A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="23920" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -132,22 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入依頼一覧画面</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日付</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -532,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -670,7 +655,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -681,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -776,7 +761,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -967,22 +952,38 @@
 11.購入承認一覧画面へ遷移する。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>購入承認一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -991,7 +992,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -999,20 +1000,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1021,7 +1022,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1029,7 +1030,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1037,7 +1038,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1183,7 +1184,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1203,7 +1204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1235,7 +1236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1273,7 +1280,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1333,7 +1346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1393,7 +1412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1453,7 +1478,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1502,9 +1533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1542,9 +1573,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1579,7 +1610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,7 +1645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1787,19 +1818,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
@@ -1823,9 +1854,9 @@
     <row r="17" spans="6:6">
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="6:6" ht="40.5">
+    <row r="18" spans="6:6" ht="45">
       <c r="F18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1836,11 +1867,11 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1860,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>6</v>
@@ -1874,30 +1905,30 @@
     </row>
     <row r="51" spans="1:7" s="17" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="40.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="45">
       <c r="A52" s="14">
         <v>1</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="D52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="F52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="G52" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1">
@@ -1905,19 +1936,19 @@
         <v>2</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -1926,19 +1957,19 @@
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F54" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -1947,19 +1978,19 @@
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -1974,7 +2005,7 @@
     </row>
     <row r="57" spans="1:7" s="17" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1">
@@ -1982,43 +2013,43 @@
         <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="44.1" customHeight="1">
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="44" customHeight="1">
       <c r="A59" s="6">
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1">
@@ -2026,19 +2057,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="G60" s="7"/>
     </row>
@@ -2047,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -2068,19 +2099,19 @@
         <v>9</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G62" s="6"/>
     </row>
@@ -2089,19 +2120,19 @@
         <v>10</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -2110,19 +2141,19 @@
         <v>11</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -2131,76 +2162,76 @@
         <v>12</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E65" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="66.95" customHeight="1">
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
       <c r="A66" s="6">
         <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="66.95" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
       <c r="A67" s="6">
         <v>14</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="17" customFormat="1">
       <c r="A71" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1">
@@ -2208,22 +2239,22 @@
         <v>15</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2235,17 +2266,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2270,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2281,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2292,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2303,10 +2334,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2316,16 +2347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -2356,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2385,7 +2416,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2736,16 +2767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -2759,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2776,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2805,7 +2836,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3169,16 +3200,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L22"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -3192,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3209,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -3238,7 +3269,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3472,14 +3503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -3493,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3510,7 +3543,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -3539,7 +3572,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>

--- a/text/画面定義書_M0004購入承認一覧画面.xlsx
+++ b/text/画面定義書_M0004購入承認一覧画面.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C43C0D-E3D1-B342-8C3A-1696BFD6A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACEFD6-ACA7-44AE-AA7D-61A673ACB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="23920" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -655,7 +655,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -666,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -761,7 +761,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -973,17 +973,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -992,7 +992,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1000,20 +1000,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1022,7 +1022,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1030,7 +1030,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1038,7 +1038,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1204,7 +1204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1822,50 +1822,50 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="6:6" ht="45">
+    <row r="18" spans="6:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="F18" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1874,13 +1874,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
@@ -1903,12 +1903,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1">
+    <row r="51" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="45">
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>1</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="5" customFormat="1">
+    <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2</v>
       </c>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1">
+    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1">
+    <row r="55" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -2003,12 +2003,12 @@
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" s="17" customFormat="1">
+    <row r="57" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1">
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="44" customHeight="1">
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>6</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>7</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1">
+    <row r="61" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>8</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
+    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1">
+    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>10</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>11</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1">
+    <row r="65" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>13</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>14</v>
       </c>
@@ -2224,17 +2224,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="17" customFormat="1">
+    <row r="71" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1">
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>15</v>
       </c>
@@ -2270,22 +2270,22 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2354,18 +2354,18 @@
       <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>91</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2442,7 +2442,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2455,7 +2455,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2468,7 +2468,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -2481,7 +2481,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2494,7 +2494,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -2507,7 +2507,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -2520,7 +2520,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2533,7 +2533,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -2546,7 +2546,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2559,7 +2559,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2572,7 +2572,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -2585,7 +2585,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -2598,7 +2598,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2611,7 +2611,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2624,7 +2624,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2637,7 +2637,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -2650,7 +2650,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -2663,7 +2663,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -2676,7 +2676,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -2689,7 +2689,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2702,7 +2702,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -2715,7 +2715,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -2728,7 +2728,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2741,7 +2741,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2774,18 +2774,18 @@
       <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>81</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2862,7 +2862,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2875,7 +2875,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2888,7 +2888,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -2901,7 +2901,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2914,7 +2914,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -2927,7 +2927,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -2940,7 +2940,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2953,7 +2953,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -2966,7 +2966,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2979,7 +2979,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2992,7 +2992,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3005,7 +3005,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -3018,7 +3018,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3031,7 +3031,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3044,7 +3044,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -3057,7 +3057,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -3070,7 +3070,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -3083,7 +3083,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -3096,7 +3096,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -3109,7 +3109,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -3122,7 +3122,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -3135,7 +3135,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -3148,7 +3148,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -3161,7 +3161,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -3174,7 +3174,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -3204,21 +3204,21 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>82</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -3295,7 +3295,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -3308,7 +3308,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3321,7 +3321,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -3334,7 +3334,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -3347,7 +3347,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -3360,7 +3360,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -3373,7 +3373,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -3386,7 +3386,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -3399,7 +3399,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -3412,7 +3412,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -3425,7 +3425,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3438,7 +3438,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -3451,7 +3451,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3464,7 +3464,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3477,7 +3477,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -3510,18 +3510,18 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>85</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -3598,7 +3598,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -3611,7 +3611,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3624,7 +3624,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -3637,7 +3637,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -3650,7 +3650,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -3663,7 +3663,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -3676,7 +3676,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -3689,7 +3689,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -3702,7 +3702,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -3715,7 +3715,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -3728,7 +3728,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3741,7 +3741,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -3754,7 +3754,7 @@
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3767,7 +3767,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3780,7 +3780,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
